--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
@@ -1556,22 +1556,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
@@ -1556,22 +1556,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16-29</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
